--- a/part_2/task2_4_results.xlsx
+++ b/part_2/task2_4_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-11700" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="44800" yWindow="-11700" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1 CPU" sheetId="2" r:id="rId1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -123,9 +123,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF29F914"/>
-      <name val="Andale Mono"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -183,13 +190,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -206,23 +215,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -452,7 +462,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0004998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,7 +561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0005038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +660,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,7 +759,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0004534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,7 +858,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0004352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,11 +874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="286434960"/>
-        <c:axId val="391666864"/>
+        <c:axId val="209560096"/>
+        <c:axId val="296749872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286434960"/>
+        <c:axId val="209560096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391666864"/>
+        <c:crossAx val="296749872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -979,7 +989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391666864"/>
+        <c:axId val="296749872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286434960"/>
+        <c:crossAx val="209560096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1341,7 +1351,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4889.234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,7 +1450,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>5564.23523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,7 +1549,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4480.3423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,7 +1648,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4023.3535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,7 +1747,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4449.09214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,11 +1763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="373143808"/>
-        <c:axId val="411790832"/>
+        <c:axId val="282736656"/>
+        <c:axId val="282092480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="373143808"/>
+        <c:axId val="282736656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411790832"/>
+        <c:crossAx val="282092480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1868,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411790832"/>
+        <c:axId val="282092480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +1989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373143808"/>
+        <c:crossAx val="282736656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2230,7 +2240,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7842686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,7 +2339,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7084178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,7 +2438,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7636782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2527,7 +2537,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.732851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,7 +2636,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7574678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,11 +2652,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="282707456"/>
-        <c:axId val="233046656"/>
+        <c:axId val="-92030384"/>
+        <c:axId val="-88707280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="282707456"/>
+        <c:axId val="-92030384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233046656"/>
+        <c:crossAx val="-88707280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2757,7 +2767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233046656"/>
+        <c:axId val="-88707280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282707456"/>
+        <c:crossAx val="-92030384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3119,7 +3129,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4973.2352354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3228,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>5084.235345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,7 +3327,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4877.935113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3416,7 +3426,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>5070.9124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3525,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4963.5798001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3531,11 +3541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="392530832"/>
-        <c:axId val="372540496"/>
+        <c:axId val="-84325968"/>
+        <c:axId val="-88349904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="392530832"/>
+        <c:axId val="-84325968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3638,7 +3648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372540496"/>
+        <c:crossAx val="-88349904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3646,7 +3656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372540496"/>
+        <c:axId val="-88349904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3757,7 +3767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392530832"/>
+        <c:crossAx val="-84325968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4424,11 +4434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-108993744"/>
-        <c:axId val="-121439248"/>
+        <c:axId val="-73476224"/>
+        <c:axId val="-73467824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-108993744"/>
+        <c:axId val="-73476224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,7 +4541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-121439248"/>
+        <c:crossAx val="-73467824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4539,7 +4549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-121439248"/>
+        <c:axId val="-73467824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,7 +4660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-108993744"/>
+        <c:crossAx val="-73476224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5313,11 +5323,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-104140288"/>
-        <c:axId val="203997072"/>
+        <c:axId val="-73712000"/>
+        <c:axId val="-73703568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-104140288"/>
+        <c:axId val="-73712000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,7 +5430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203997072"/>
+        <c:crossAx val="-73703568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5428,7 +5438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203997072"/>
+        <c:axId val="-73703568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,7 +5549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-104140288"/>
+        <c:crossAx val="-73712000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5790,7 +5800,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0008706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5889,7 +5899,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0013802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5988,7 +5998,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0015216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6087,7 +6097,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0020912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6186,7 +6196,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0035728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6202,11 +6212,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-119081936"/>
-        <c:axId val="280913936"/>
+        <c:axId val="-71374176"/>
+        <c:axId val="-71365744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-119081936"/>
+        <c:axId val="-71374176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6309,7 +6319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280913936"/>
+        <c:crossAx val="-71365744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6317,7 +6327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280913936"/>
+        <c:axId val="-71365744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6428,7 +6438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-119081936"/>
+        <c:crossAx val="-71374176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7091,11 +7101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-119290352"/>
-        <c:axId val="389977792"/>
+        <c:axId val="-71491536"/>
+        <c:axId val="-87148400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-119290352"/>
+        <c:axId val="-71491536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7198,7 +7208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389977792"/>
+        <c:crossAx val="-87148400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7206,7 +7216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389977792"/>
+        <c:axId val="-87148400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7317,7 +7327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-119290352"/>
+        <c:crossAx val="-71491536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7980,11 +7990,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="321189136"/>
-        <c:axId val="321185264"/>
+        <c:axId val="286136656"/>
+        <c:axId val="281614976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="321189136"/>
+        <c:axId val="286136656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8087,7 +8097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321185264"/>
+        <c:crossAx val="281614976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8095,7 +8105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321185264"/>
+        <c:axId val="281614976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8206,7 +8216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321189136"/>
+        <c:crossAx val="286136656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8457,7 +8467,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3060.1</c:v>
+                  <c:v>1409.8924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8556,7 +8566,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>489.3522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8655,7 +8665,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>462.3481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8754,7 +8764,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>442.9231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8853,7 +8863,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>470.98351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8869,11 +8879,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="321731664"/>
-        <c:axId val="321005968"/>
+        <c:axId val="-72337600"/>
+        <c:axId val="-85034416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="321731664"/>
+        <c:axId val="-72337600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8976,7 +8986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321005968"/>
+        <c:crossAx val="-85034416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8984,7 +8994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321005968"/>
+        <c:axId val="-85034416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9095,7 +9105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321731664"/>
+        <c:crossAx val="-72337600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9762,11 +9772,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="325099648"/>
-        <c:axId val="301443408"/>
+        <c:axId val="-84972736"/>
+        <c:axId val="-84968320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325099648"/>
+        <c:axId val="-84972736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9869,7 +9879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301443408"/>
+        <c:crossAx val="-84968320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9877,7 +9887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301443408"/>
+        <c:axId val="-84968320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9988,7 +9998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325099648"/>
+        <c:crossAx val="-84972736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10239,7 +10249,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.001726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10338,7 +10348,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0013086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10437,7 +10447,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0013074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10536,7 +10546,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0015304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10635,7 +10645,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0024094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10651,11 +10661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="411510992"/>
-        <c:axId val="291576912"/>
+        <c:axId val="-84503136"/>
+        <c:axId val="234684496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="411510992"/>
+        <c:axId val="-84503136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10758,7 +10768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291576912"/>
+        <c:crossAx val="234684496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10766,7 +10776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291576912"/>
+        <c:axId val="234684496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10877,7 +10887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411510992"/>
+        <c:crossAx val="-84503136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11132,7 +11142,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1484.8532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11231,7 +11241,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1273.3456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11330,7 +11340,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1426.3541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11429,7 +11439,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1378.9887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11528,7 +11538,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1288.435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11544,11 +11554,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="291712304"/>
-        <c:axId val="291646192"/>
+        <c:axId val="-85954128"/>
+        <c:axId val="-85945504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291712304"/>
+        <c:axId val="-85954128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11651,7 +11661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291646192"/>
+        <c:crossAx val="-85945504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11659,7 +11669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291646192"/>
+        <c:axId val="-85945504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11770,7 +11780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291712304"/>
+        <c:crossAx val="-85954128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12433,11 +12443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="376333264"/>
-        <c:axId val="-108376000"/>
+        <c:axId val="-73743152"/>
+        <c:axId val="-85064400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="376333264"/>
+        <c:axId val="-73743152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12540,7 +12550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-108376000"/>
+        <c:crossAx val="-85064400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12548,7 +12558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-108376000"/>
+        <c:axId val="-85064400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12659,7 +12669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376333264"/>
+        <c:crossAx val="-73743152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12910,7 +12920,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2669.323</c:v>
+                  <c:v>1682.9083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13009,7 +13019,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2708.231</c:v>
+                  <c:v>1059.3218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13108,7 +13118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2691.923</c:v>
+                  <c:v>1683.8983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13207,7 +13217,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2619.899</c:v>
+                  <c:v>1488.97144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13306,7 +13316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2641.002</c:v>
+                  <c:v>879.8758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13322,11 +13332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348945120"/>
-        <c:axId val="-106126608"/>
+        <c:axId val="-85920208"/>
+        <c:axId val="-71804800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="348945120"/>
+        <c:axId val="-85920208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13429,7 +13439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-106126608"/>
+        <c:crossAx val="-71804800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13437,7 +13447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-106126608"/>
+        <c:axId val="-71804800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13548,7 +13558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348945120"/>
+        <c:crossAx val="-85920208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13799,7 +13809,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.869883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13898,7 +13908,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.464958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13997,7 +14007,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.3546142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14096,7 +14106,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.4602598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14195,7 +14205,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.356045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14211,11 +14221,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-118741904"/>
-        <c:axId val="392913568"/>
+        <c:axId val="-91867616"/>
+        <c:axId val="-91105728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-118741904"/>
+        <c:axId val="-91867616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14318,7 +14328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392913568"/>
+        <c:crossAx val="-91105728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14326,7 +14336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392913568"/>
+        <c:axId val="-91105728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14437,7 +14447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-118741904"/>
+        <c:crossAx val="-91867616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14688,7 +14698,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2598.971</c:v>
+                  <c:v>1774.9816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14787,7 +14797,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2166.899</c:v>
+                  <c:v>1523.6988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14886,7 +14896,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2572.301</c:v>
+                  <c:v>1789.2346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14985,7 +14995,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2797.323</c:v>
+                  <c:v>1768.3982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15084,7 +15094,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2214.884</c:v>
+                  <c:v>1803.489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15100,11 +15110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="392353328"/>
-        <c:axId val="350755312"/>
+        <c:axId val="-91990736"/>
+        <c:axId val="-91982304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="392353328"/>
+        <c:axId val="-91990736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15207,7 +15217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350755312"/>
+        <c:crossAx val="-91982304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15215,7 +15225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350755312"/>
+        <c:axId val="-91982304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15326,7 +15336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392353328"/>
+        <c:crossAx val="-91990736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15577,7 +15587,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0013982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15676,7 +15686,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0022978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15775,7 +15785,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.001784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15874,7 +15884,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0025526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15973,7 +15983,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0041058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15989,11 +15999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="372996080"/>
-        <c:axId val="372760768"/>
+        <c:axId val="234682112"/>
+        <c:axId val="209192144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="372996080"/>
+        <c:axId val="234682112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16096,7 +16106,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372760768"/>
+        <c:crossAx val="209192144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16104,7 +16114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="372760768"/>
+        <c:axId val="209192144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16215,7 +16225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372996080"/>
+        <c:crossAx val="234682112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16466,7 +16476,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.000547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16565,7 +16575,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.003038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16664,7 +16674,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0070664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16763,7 +16773,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.017802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16862,7 +16872,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0392192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16878,11 +16888,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="346223200"/>
-        <c:axId val="287877280"/>
+        <c:axId val="-84676928"/>
+        <c:axId val="-90214864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346223200"/>
+        <c:axId val="-84676928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16985,7 +16995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287877280"/>
+        <c:crossAx val="-90214864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16993,7 +17003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287877280"/>
+        <c:axId val="-90214864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17104,7 +17114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346223200"/>
+        <c:crossAx val="-84676928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17355,7 +17365,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6364944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17454,7 +17464,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7071944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17553,7 +17563,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.8116804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17652,7 +17662,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0860716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17751,7 +17761,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.1702298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17767,11 +17777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-118242496"/>
-        <c:axId val="300769792"/>
+        <c:axId val="-91710832"/>
+        <c:axId val="-91702400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-118242496"/>
+        <c:axId val="-91710832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17874,7 +17884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300769792"/>
+        <c:crossAx val="-91702400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17882,7 +17892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300769792"/>
+        <c:axId val="-91702400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17993,7 +18003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-118242496"/>
+        <c:crossAx val="-91710832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18244,7 +18254,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>5203.85421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18343,7 +18353,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>7148.897342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18442,7 +18452,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>7140.3895462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18541,7 +18551,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>6779.7742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18640,7 +18650,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>6671.2935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18656,11 +18666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="325616768"/>
-        <c:axId val="350233584"/>
+        <c:axId val="-75006912"/>
+        <c:axId val="-74998480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="325616768"/>
+        <c:axId val="-75006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18763,7 +18773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350233584"/>
+        <c:crossAx val="-74998480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18771,7 +18781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350233584"/>
+        <c:axId val="-74998480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18882,7 +18892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325616768"/>
+        <c:crossAx val="-75006912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19137,7 +19147,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5843844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19236,7 +19246,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5912998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19335,7 +19345,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5992846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19434,7 +19444,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5803978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19533,7 +19543,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.6036258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19549,11 +19559,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-118037344"/>
-        <c:axId val="375925312"/>
+        <c:axId val="281396944"/>
+        <c:axId val="281420288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-118037344"/>
+        <c:axId val="281396944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19656,7 +19666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375925312"/>
+        <c:crossAx val="281420288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19664,7 +19674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375925312"/>
+        <c:axId val="281420288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19775,7 +19785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-118037344"/>
+        <c:crossAx val="281396944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20030,7 +20040,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2311.2438999</c:v>
+                  <c:v>5391.3456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20129,7 +20139,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2311.993234</c:v>
+                  <c:v>5489.236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20228,7 +20238,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2313.94384</c:v>
+                  <c:v>5412.7571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20327,7 +20337,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2314.143234</c:v>
+                  <c:v>6893.6134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20426,7 +20436,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2313.293234</c:v>
+                  <c:v>6921.9035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20442,11 +20452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-105693280"/>
-        <c:axId val="-105438320"/>
+        <c:axId val="288616592"/>
+        <c:axId val="288515584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-105693280"/>
+        <c:axId val="288616592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20549,7 +20559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-105438320"/>
+        <c:crossAx val="288515584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20557,7 +20567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-105438320"/>
+        <c:axId val="288515584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20668,7 +20678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-105693280"/>
+        <c:crossAx val="288616592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20919,7 +20929,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7888726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21018,7 +21028,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7899934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21117,7 +21127,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7831562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21216,7 +21226,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.9162852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21315,7 +21325,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.9810368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21331,11 +21341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="393986288"/>
-        <c:axId val="290213712"/>
+        <c:axId val="-88316384"/>
+        <c:axId val="-92029056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393986288"/>
+        <c:axId val="-88316384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21438,7 +21448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290213712"/>
+        <c:crossAx val="-92029056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21446,7 +21456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290213712"/>
+        <c:axId val="-92029056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21557,7 +21567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393986288"/>
+        <c:crossAx val="-88316384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -36023,11 +36033,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D31" sqref="D30:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
@@ -36068,16 +36083,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -36086,14 +36101,24 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="e">
+      <c r="C4" s="5">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4.4799999999999999E-4</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H18" si="0">AVERAGE(C4:G4)</f>
-        <v>#DIV/0!</v>
+        <v>4.9980000000000001E-4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36103,14 +36128,24 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="e">
+      <c r="C5" s="5">
+        <v>0.57741600000000004</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.58759700000000004</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.56312399999999996</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.59983900000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.59394599999999997</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.58438440000000003</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36120,16 +36155,16 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13">
-        <v>2311.2438999000001</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="5">
+        <v>5391.3455999999996</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>2311.2438999000001</v>
+        <v>5391.3455999999996</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36139,14 +36174,24 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="e">
+      <c r="C7" s="5">
+        <v>4.46E-4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.44E-4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.5899999999999999E-4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.0379999999999999E-4</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36156,14 +36201,24 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6" t="e">
+      <c r="C8" s="5">
+        <v>0.58185100000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.58343599999999995</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.60996799999999995</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.570747</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.61049699999999996</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.59129980000000004</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36173,16 +36228,16 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13">
-        <v>2311.993234</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="5">
+        <v>5489.2359999999999</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>2311.993234</v>
+        <v>5489.2359999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36192,14 +36247,24 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6" t="e">
+      <c r="C10" s="5">
+        <v>4.4299999999999998E-4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.2700000000000002E-4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.44E-4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4.5600000000000003E-4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4.55E-4</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.6499999999999997E-4</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36209,14 +36274,24 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6" t="e">
+      <c r="C11" s="5">
+        <v>0.619923</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.58532300000000004</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.61013099999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.58778900000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.59325700000000003</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.59928460000000006</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36226,16 +36301,16 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13">
-        <v>2313.9438399999999</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="5">
+        <v>5412.7570999999998</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
-        <v>2313.9438399999999</v>
+        <v>5412.7570999999998</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36245,14 +36320,24 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6" t="e">
+      <c r="C13" s="5">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.4199999999999995E-4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.1199999999999999E-4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4.26E-4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.5339999999999996E-4</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36262,14 +36347,24 @@
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C14" s="5">
+        <v>0.56741799999999998</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.58913199999999999</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.59068500000000002</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.60139600000000004</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.55335800000000002</v>
+      </c>
+      <c r="H14" s="6">
+        <f>AVERAGE(C14:G14)</f>
+        <v>0.58039780000000007</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36279,16 +36374,16 @@
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13">
-        <v>2314.1432340000001</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="5">
+        <v>6893.6134000000002</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>2314.1432340000001</v>
+        <v>6893.6134000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36298,14 +36393,24 @@
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6" t="e">
+      <c r="C16" s="5">
+        <v>3.8499999999999998E-4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4.5300000000000001E-4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.0900000000000002E-4</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.9100000000000001E-4</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4.3800000000000002E-4</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.3520000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36315,14 +36420,24 @@
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6" t="e">
+      <c r="C17" s="5">
+        <v>0.55806900000000004</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.65617999999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.62404999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.59829600000000005</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.581534</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.60362579999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36332,41 +36447,41 @@
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13">
-        <v>2313.2932340000002</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="5">
+        <v>6921.9035000000003</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>2313.2932340000002</v>
+        <f>AVERAGE(C18:G18)</f>
+        <v>6921.9035000000003</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -36375,14 +36490,24 @@
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6" t="e">
+      <c r="C21" s="5">
+        <v>2.3679999999999999E-3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6.5700000000000003E-4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2.4520000000000002E-3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6.0300000000000002E-4</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" ref="H21:H35" si="1">AVERAGE(C21:G21)</f>
-        <v>#DIV/0!</v>
+        <v>1.7259999999999997E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36392,14 +36517,24 @@
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6" t="e">
+      <c r="C22" s="5">
+        <v>0.756382</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.77387300000000003</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.77036000000000004</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.796099</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.84764899999999999</v>
+      </c>
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.78887260000000003</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36409,14 +36544,16 @@
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>4889.2340000000004</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H23" s="6">
+        <f>AVERAGE(C23:G23)</f>
+        <v>4889.2340000000004</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36426,14 +36563,24 @@
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C24" s="5">
+        <v>6.9700000000000003E-4</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.0889999999999999E-3</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.8879999999999999E-3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.1510000000000001E-3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>7.18E-4</v>
+      </c>
+      <c r="H24" s="6">
+        <f>AVERAGE(C24:G24)</f>
+        <v>1.3086E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36443,14 +36590,24 @@
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C25" s="5">
+        <v>0.73479099999999997</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.758575</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.88287099999999996</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.77931600000000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.79441399999999995</v>
+      </c>
+      <c r="H25" s="6">
+        <f>AVERAGE(C25:G25)</f>
+        <v>0.78999339999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36460,14 +36617,16 @@
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>5564.2352300000002</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H26" s="6">
+        <f>AVERAGE(C26:G26)</f>
+        <v>5564.2352300000002</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36477,14 +36636,24 @@
       <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C27" s="5">
+        <v>1.256E-3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.8289999999999999E-3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.1130000000000001E-3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.552E-3</v>
+      </c>
+      <c r="H27" s="6">
+        <f>AVERAGE(C27:G27)</f>
+        <v>1.3074000000000002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36494,14 +36663,24 @@
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C28" s="5">
+        <v>0.78437599999999996</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.79557900000000004</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.710256</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.79866599999999999</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.82690399999999997</v>
+      </c>
+      <c r="H28" s="6">
+        <f>AVERAGE(C28:G28)</f>
+        <v>0.78315619999999997</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36511,14 +36690,16 @@
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>4480.3423000000003</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H29" s="6">
+        <f>AVERAGE(C29:G29)</f>
+        <v>4480.3423000000003</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36528,14 +36709,24 @@
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C30" s="5">
+        <v>2.0639999999999999E-3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>9.0899999999999998E-4</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.0630000000000002E-3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.611E-3</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1.005E-3</v>
+      </c>
+      <c r="H30" s="6">
+        <f>AVERAGE(C30:G30)</f>
+        <v>1.5303999999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36545,14 +36736,24 @@
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C31" s="5">
+        <v>0.761517</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.78115999999999997</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.775926</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.908053</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1.35477</v>
+      </c>
+      <c r="H31" s="6">
+        <f>AVERAGE(C31:G31)</f>
+        <v>0.91628520000000013</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36562,14 +36763,16 @@
       <c r="B32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>4023.3535000000002</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H32" s="6">
+        <f>AVERAGE(C32:G32)</f>
+        <v>4023.3535000000002</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36579,14 +36782,24 @@
       <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C33" s="5">
+        <v>2.477E-3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3.1589999999999999E-3</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.32E-3</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3.0109999999999998E-3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2.0799999999999998E-3</v>
+      </c>
+      <c r="H33" s="6">
+        <f>AVERAGE(C33:G33)</f>
+        <v>2.4093999999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36596,14 +36809,24 @@
       <c r="B34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C34" s="5">
+        <v>1.027061</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.77387499999999998</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.2810550000000001</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.80747899999999995</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.015714</v>
+      </c>
+      <c r="H34" s="6">
+        <f>AVERAGE(C34:G34)</f>
+        <v>0.98103680000000004</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36613,22 +36836,29 @@
       <c r="B35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="C35" s="5">
+        <v>4449.0921399999997</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6">
+        <f>AVERAGE(C35:G35)</f>
+        <v>4449.0921399999997</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -36637,9 +36867,24 @@
       <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="6" t="e">
-        <f t="shared" ref="H37:H51" si="2">AVERAGE(C37:G37)</f>
-        <v>#DIV/0!</v>
+      <c r="C37" s="5">
+        <v>8.8800000000000001E-4</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2.545E-3</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2.137E-3</v>
+      </c>
+      <c r="F37" s="5">
+        <v>7.1299999999999998E-4</v>
+      </c>
+      <c r="G37" s="5">
+        <v>7.0799999999999997E-4</v>
+      </c>
+      <c r="H37" s="6">
+        <f>AVERAGE(C37:G37)</f>
+        <v>1.3982000000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36649,9 +36894,24 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C38" s="5">
+        <v>0.72309599999999996</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.79294699999999996</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.92101299999999997</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.76289300000000004</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.72139399999999998</v>
+      </c>
+      <c r="H38" s="6">
+        <f>AVERAGE(C38:G38)</f>
+        <v>0.78426859999999998</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36661,9 +36921,16 @@
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C39" s="5">
+        <v>4973.2352354000004</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6">
+        <f t="shared" ref="H37:H51" si="2">AVERAGE(C39:G39)</f>
+        <v>4973.2352354000004</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36673,9 +36940,24 @@
       <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C40" s="5">
+        <v>2.3939999999999999E-3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.343E-3</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2.405E-3</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2.6749999999999999E-3</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1.6720000000000001E-3</v>
+      </c>
+      <c r="H40" s="6">
+        <f>AVERAGE(C40:G40)</f>
+        <v>2.2978E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36685,9 +36967,24 @@
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C41" s="5">
+        <v>0.689689</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.70501899999999995</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.71206599999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.676342</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.75897300000000001</v>
+      </c>
+      <c r="H41" s="6">
+        <f>AVERAGE(C41:G41)</f>
+        <v>0.7084178000000001</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36697,9 +36994,16 @@
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="6" t="e">
+      <c r="C42" s="5">
+        <v>5084.2353450000001</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5084.2353450000001</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36709,9 +37013,24 @@
       <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="6" t="e">
+      <c r="C43" s="5">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2.1679999999999998E-3</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1.547E-3</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.737E-3</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2.098E-3</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.7839999999999998E-3</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36721,9 +37040,24 @@
       <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C44" s="5">
+        <v>0.69296400000000002</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.79763700000000004</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.90236700000000003</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.69144899999999998</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.73397400000000002</v>
+      </c>
+      <c r="H44" s="6">
+        <f>AVERAGE(C44:G44)</f>
+        <v>0.76367819999999997</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36733,9 +37067,16 @@
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="6" t="e">
+      <c r="C45" s="5">
+        <v>4877.9351129999995</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4877.9351129999995</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36745,9 +37086,24 @@
       <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C46" s="5">
+        <v>2.4589999999999998E-3</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2.9160000000000002E-3</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2.8939999999999999E-3</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1.9859999999999999E-3</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2.5079999999999998E-3</v>
+      </c>
+      <c r="H46" s="6">
+        <f>AVERAGE(C46:G46)</f>
+        <v>2.5525999999999995E-3</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36757,9 +37113,24 @@
       <c r="B47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C47" s="5">
+        <v>0.82146799999999998</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.69401299999999999</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.71028999999999998</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.70254399999999995</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.73594000000000004</v>
+      </c>
+      <c r="H47" s="6">
+        <f>AVERAGE(C47:G47)</f>
+        <v>0.73285099999999992</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36769,9 +37140,16 @@
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C48" s="5">
+        <v>5070.9124000000002</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6">
+        <f>AVERAGE(C48:G48)</f>
+        <v>5070.9124000000002</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36781,9 +37159,24 @@
       <c r="B49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="6" t="e">
+      <c r="C49" s="5">
+        <v>4.0159999999999996E-3</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3.3800000000000002E-3</v>
+      </c>
+      <c r="E49" s="5">
+        <v>4.627E-3</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3.5699999999999998E-3</v>
+      </c>
+      <c r="G49" s="5">
+        <v>4.9360000000000003E-3</v>
+      </c>
+      <c r="H49" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.1057999999999997E-3</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36793,9 +37186,24 @@
       <c r="B50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C50" s="5">
+        <v>0.732873</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.74980999999999998</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.73143100000000005</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.75007400000000002</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.82315099999999997</v>
+      </c>
+      <c r="H50" s="6">
+        <f>AVERAGE(C50:G50)</f>
+        <v>0.75746780000000002</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36805,22 +37213,29 @@
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C51" s="5">
+        <v>4963.5798001000003</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="6">
+        <f>AVERAGE(C51:G51)</f>
+        <v>4963.5798001000003</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -36829,14 +37244,24 @@
       <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="6" t="e">
+      <c r="C53" s="5">
+        <v>5.0699999999999996E-4</v>
+      </c>
+      <c r="D53" s="5">
+        <v>4.9799999999999996E-4</v>
+      </c>
+      <c r="E53" s="5">
+        <v>5.8799999999999998E-4</v>
+      </c>
+      <c r="F53" s="5">
+        <v>5.5099999999999995E-4</v>
+      </c>
+      <c r="G53" s="5">
+        <v>5.9100000000000005E-4</v>
+      </c>
+      <c r="H53" s="6">
         <f t="shared" ref="H53:H67" si="3">AVERAGE(C53:G53)</f>
-        <v>#DIV/0!</v>
+        <v>5.4699999999999996E-4</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36846,14 +37271,24 @@
       <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C54" s="5">
+        <v>0.72942700000000005</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.60353299999999999</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.63693599999999995</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.58595200000000003</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.62662399999999996</v>
+      </c>
+      <c r="H54" s="6">
+        <f>AVERAGE(C54:G54)</f>
+        <v>0.63649440000000002</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36863,14 +37298,16 @@
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5">
+        <v>5203.8542100000004</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="6" t="e">
+      <c r="H55" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5203.8542100000004</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36880,14 +37317,24 @@
       <c r="B56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C56" s="5">
+        <v>2.941E-3</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3.5560000000000001E-3</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2.8990000000000001E-3</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2.8709999999999999E-3</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2.9229999999999998E-3</v>
+      </c>
+      <c r="H56" s="6">
+        <f>AVERAGE(C56:G56)</f>
+        <v>3.0379999999999999E-3</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36897,14 +37344,24 @@
       <c r="B57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C57" s="5">
+        <v>0.69995300000000005</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.69797600000000004</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.66364299999999998</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.67985399999999996</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.79454599999999997</v>
+      </c>
+      <c r="H57" s="6">
+        <f>AVERAGE(C57:G57)</f>
+        <v>0.70719439999999989</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36914,14 +37371,16 @@
       <c r="B58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5">
+        <v>7148.8973420000002</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H58" s="6">
+        <f>AVERAGE(C58:G58)</f>
+        <v>7148.8973420000002</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36931,14 +37390,24 @@
       <c r="B59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C59" s="5">
+        <v>5.927E-3</v>
+      </c>
+      <c r="D59" s="5">
+        <v>7.2979999999999998E-3</v>
+      </c>
+      <c r="E59" s="5">
+        <v>6.071E-3</v>
+      </c>
+      <c r="F59" s="5">
+        <v>7.7869999999999997E-3</v>
+      </c>
+      <c r="G59" s="5">
+        <v>8.2489999999999994E-3</v>
+      </c>
+      <c r="H59" s="6">
+        <f>AVERAGE(C59:G59)</f>
+        <v>7.0664000000000005E-3</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36948,14 +37417,24 @@
       <c r="B60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C60" s="5">
+        <v>0.88207899999999995</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.76796200000000003</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.76676699999999998</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.77346899999999996</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.86812500000000004</v>
+      </c>
+      <c r="H60" s="6">
+        <f>AVERAGE(C60:G60)</f>
+        <v>0.81168039999999986</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36965,14 +37444,16 @@
       <c r="B61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5">
+        <v>7140.3895462</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H61" s="6">
+        <f>AVERAGE(C61:G61)</f>
+        <v>7140.3895462</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36982,14 +37463,24 @@
       <c r="B62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C62" s="5">
+        <v>1.9012000000000001E-2</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1.5195999999999999E-2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1.6508999999999999E-2</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2.146E-2</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1.6833000000000001E-2</v>
+      </c>
+      <c r="H62" s="6">
+        <f>AVERAGE(C62:G62)</f>
+        <v>1.7801999999999998E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -36999,14 +37490,24 @@
       <c r="B63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C63" s="5">
+        <v>0.87641999999999998</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.92803100000000005</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.86775999999999998</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.88954100000000003</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1.868606</v>
+      </c>
+      <c r="H63" s="6">
+        <f>AVERAGE(C63:G63)</f>
+        <v>1.0860715999999999</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37016,14 +37517,16 @@
       <c r="B64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5">
+        <v>6779.7741999999998</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H64" s="6">
+        <f>AVERAGE(C64:G64)</f>
+        <v>6779.7741999999998</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37033,14 +37536,24 @@
       <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C65" s="5">
+        <v>4.5125999999999999E-2</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3.7689E-2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3.7215999999999999E-2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>3.9292000000000001E-2</v>
+      </c>
+      <c r="G65" s="5">
+        <v>3.6773E-2</v>
+      </c>
+      <c r="H65" s="6">
+        <f>AVERAGE(C65:G65)</f>
+        <v>3.9219199999999996E-2</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37050,14 +37563,24 @@
       <c r="B66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C66" s="5">
+        <v>1.168574</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1.1239859999999999</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1.1444749999999999</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1.1095550000000001</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1.304559</v>
+      </c>
+      <c r="H66" s="6">
+        <f>AVERAGE(C66:G66)</f>
+        <v>1.1702298</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37067,24 +37590,26 @@
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5">
+        <v>6671.2934999999998</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="H67" s="6">
+        <f>AVERAGE(C67:G67)</f>
+        <v>6671.2934999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A52:H52"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37095,15 +37620,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="H21" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -37147,16 +37673,16 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -37220,14 +37746,16 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6" t="e">
+      <c r="C6" s="5">
+        <v>1484.8532</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1484.8532</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -37291,14 +37819,16 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="6" t="e">
+      <c r="C9" s="5">
+        <v>1273.3456000000001</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1273.3456000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -37362,14 +37892,16 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="6" t="e">
+      <c r="C12" s="5">
+        <v>1426.3541</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1426.3541</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -37433,14 +37965,16 @@
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="6" t="e">
+      <c r="C15" s="5">
+        <v>1378.9887000000001</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1378.9887000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -37504,39 +38038,41 @@
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="6" t="e">
+      <c r="C18" s="5">
+        <v>1288.4349999999999</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1288.4349999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -37600,7 +38136,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="5">
-        <v>2669.3229999999999</v>
+        <v>1682.9083000000001</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -37608,7 +38144,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>2669.3229999999999</v>
+        <v>1682.9083000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37673,7 +38209,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="5">
-        <v>2708.2310000000002</v>
+        <v>1059.3217999999999</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -37681,7 +38217,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v>2708.2310000000002</v>
+        <v>1059.3217999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37746,7 +38282,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="5">
-        <v>2691.9229999999998</v>
+        <v>1683.8983000000001</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -37754,7 +38290,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="6">
         <f t="shared" si="1"/>
-        <v>2691.9229999999998</v>
+        <v>1683.8983000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37819,7 +38355,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="5">
-        <v>2619.8989999999999</v>
+        <v>1488.97144</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -37827,7 +38363,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="6">
         <f t="shared" si="1"/>
-        <v>2619.8989999999999</v>
+        <v>1488.97144</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37892,24 +38428,24 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>2641.002</v>
+        <v>879.87580000000003</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>2641.002</v>
+        <v>879.87580000000003</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -37918,9 +38454,24 @@
       <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="6" t="e">
+      <c r="C37" s="5">
+        <v>9.01E-4</v>
+      </c>
+      <c r="D37" s="5">
+        <v>6.5200000000000002E-4</v>
+      </c>
+      <c r="E37" s="5">
+        <v>6.6100000000000002E-4</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.536E-3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>6.0300000000000002E-4</v>
+      </c>
+      <c r="H37" s="6">
         <f t="shared" ref="H37:H51" si="2">AVERAGE(C37:G37)</f>
-        <v>#DIV/0!</v>
+        <v>8.7060000000000002E-4</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37930,9 +38481,24 @@
       <c r="B38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="6" t="e">
+      <c r="C38" s="5">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.93091000000000002</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.92438299999999995</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.91564500000000004</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.83197699999999997</v>
+      </c>
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.86988299999999996</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37942,12 +38508,16 @@
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C39">
-        <v>2598.971</v>
-      </c>
+      <c r="C39" s="5">
+        <v>1774.9816000000001</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="6">
         <f t="shared" si="2"/>
-        <v>2598.971</v>
+        <v>1774.9816000000001</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37957,9 +38527,24 @@
       <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="6" t="e">
+      <c r="C40" s="5">
+        <v>1.488E-3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.874E-3</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.343E-3</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.0889999999999999E-3</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1.1069999999999999E-3</v>
+      </c>
+      <c r="H40" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.3801999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37969,9 +38554,24 @@
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="6" t="e">
+      <c r="C41" s="5">
+        <v>1.4237919999999999</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.5237959999999999</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.4530959999999999</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1.250615</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1.6734910000000001</v>
+      </c>
+      <c r="H41" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.464958</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37981,12 +38581,16 @@
       <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C42">
-        <v>2166.8989999999999</v>
-      </c>
+      <c r="C42" s="5">
+        <v>1523.6987999999999</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
       <c r="H42" s="6">
         <f t="shared" si="2"/>
-        <v>2166.8989999999999</v>
+        <v>1523.6987999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37996,9 +38600,24 @@
       <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="6" t="e">
+      <c r="C43" s="5">
+        <v>1.766E-3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.359E-3</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1.402E-3</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.474E-3</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1.6069999999999999E-3</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.5215999999999999E-3</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38008,9 +38627,24 @@
       <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="6" t="e">
+      <c r="C44" s="5">
+        <v>1.3501320000000001</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.356263</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1.321596</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1.3883570000000001</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1.3567229999999999</v>
+      </c>
+      <c r="H44" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.3546141999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38020,12 +38654,16 @@
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45">
-        <v>2572.3009999999999</v>
-      </c>
+      <c r="C45" s="5">
+        <v>1789.2346</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="6">
         <f t="shared" si="2"/>
-        <v>2572.3009999999999</v>
+        <v>1789.2346</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38035,9 +38673,24 @@
       <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="6" t="e">
+      <c r="C46" s="5">
+        <v>2.0470000000000002E-3</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2.1459999999999999E-3</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1.9139999999999999E-3</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2.0739999999999999E-3</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2.2750000000000001E-3</v>
+      </c>
+      <c r="H46" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0912000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38047,9 +38700,24 @@
       <c r="B47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="6" t="e">
+      <c r="C47" s="5">
+        <v>1.2549140000000001</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1.434321</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1.386922</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1.6456550000000001</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1.5794870000000001</v>
+      </c>
+      <c r="H47" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.4602598</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38059,12 +38727,16 @@
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C48">
-        <v>2797.3229999999999</v>
-      </c>
+      <c r="C48" s="5">
+        <v>1768.3982000000001</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="6">
         <f t="shared" si="2"/>
-        <v>2797.3229999999999</v>
+        <v>1768.3982000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38074,9 +38746,24 @@
       <c r="B49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="6" t="e">
+      <c r="C49" s="5">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3.4789999999999999E-3</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3.8089999999999999E-3</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3.764E-3</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3.4619999999999998E-3</v>
+      </c>
+      <c r="H49" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.5727999999999997E-3</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38086,9 +38773,24 @@
       <c r="B50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="6" t="e">
+      <c r="C50" s="5">
+        <v>1.355764</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1.395615</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1.291207</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1.357151</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1.3804879999999999</v>
+      </c>
+      <c r="H50" s="6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.3560449999999999</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38098,25 +38800,29 @@
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C51">
-        <v>2214.884</v>
-      </c>
+      <c r="C51" s="5">
+        <v>1803.489</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="6">
         <f t="shared" si="2"/>
-        <v>2214.884</v>
+        <v>1803.489</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -38180,7 +38886,7 @@
         <v>12</v>
       </c>
       <c r="C55" s="5">
-        <v>3060.1</v>
+        <v>1409.8924</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -38188,7 +38894,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="6">
         <f t="shared" si="3"/>
-        <v>3060.1</v>
+        <v>1409.8924</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38252,14 +38958,16 @@
       <c r="B58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5">
+        <v>489.35219999999998</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="6" t="e">
+      <c r="H58" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>489.35219999999998</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38323,14 +39031,16 @@
       <c r="B61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5">
+        <v>462.34809999999999</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="6" t="e">
+      <c r="H61" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>462.34809999999999</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38394,14 +39104,16 @@
       <c r="B64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="5">
+        <v>442.92309999999998</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="6" t="e">
+      <c r="H64" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>442.92309999999998</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -38465,14 +39177,16 @@
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5">
+        <v>470.98351000000002</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="6" t="e">
+      <c r="H67" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>470.98351000000002</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.15">
